--- a/2des/01-pwbe/aula11/Exercício Clinica/backend/docs/Lista de Erros.xlsx
+++ b/2des/01-pwbe/aula11/Exercício Clinica/backend/docs/Lista de Erros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\01-pwbe\aula11\Exercício Clinica\backend\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\01-pwbe\aula11\Exercício Clinica\backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9829E3-92AA-4E0E-9494-007B4800B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D119635C-785F-44FD-BA64-DE314462A3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EE644B8-39A1-4D2D-A3A8-B35FC1537D7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0EE644B8-39A1-4D2D-A3A8-B35FC1537D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nome do arquivo</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Resolução</t>
+  </si>
+  <si>
+    <t>backend/server.js</t>
+  </si>
+  <si>
+    <t>app.use(express.json());</t>
+  </si>
+  <si>
+    <t>Falta de parênteses na função json() do express "app.use(express.json);"</t>
   </si>
 </sst>
 </file>
@@ -419,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0523F9CA-4CE0-4E50-8A61-19735A4A8162}">
   <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +455,18 @@
       </c>
     </row>
     <row r="3" spans="2:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="2:5" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
